--- a/biology/Botanique/Salvia_aegyptiaca/Salvia_aegyptiaca.xlsx
+++ b/biology/Botanique/Salvia_aegyptiaca/Salvia_aegyptiaca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sauge égyptienne
 Salvia aegyptiaca, la sauge égyptienne, est une espèce de plante herbacée de la famille des Lamiacées.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salvia aegyptiaca se trouve dans les îles du Cap-Vert, les îles Canaries, l'Afrique du Nord-Ouest et du Nord, le Soudan, l'Éthiopie, la péninsule arabique, l'Iran, l'Afghanistan, le Pakistan, l'Inde[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salvia aegyptiaca se trouve dans les îles du Cap-Vert, les îles Canaries, l'Afrique du Nord-Ouest et du Nord, le Soudan, l'Éthiopie, la péninsule arabique, l'Iran, l'Afghanistan, le Pakistan, l'Inde. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante herbacée, à tiges dressées-ascendantes. Les feuilles vont de forme oblongues à linéaires-elliptiques, rugueuses, dentelées. Cette espèce a des inflorescences de grappes simples, parfois ramifiées. Les bractées sont présentes. La corolle a une couleur bleu-violet[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée, à tiges dressées-ascendantes. Les feuilles vont de forme oblongues à linéaires-elliptiques, rugueuses, dentelées. Cette espèce a des inflorescences de grappes simples, parfois ramifiées. Les bractées sont présentes. La corolle a une couleur bleu-violet. 
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salvia aegyptiaca a été étudiée en raison de ses utilisations dans la médecine populaire de l'Ancien Monde pour traiter la diarrhée, la gonorrhée et les hémorroïdes, et elle a été utilisée comme émollient, antispasmodique, cicatrisant, antiseptique et stomachique . Ses extraits non polaires ont été testés comme antimicrobiens et ont présenté une activité inhibitrice contre Bacillus subtilis, Pseudomonas aeruginosa, Candida albicans et Staphylococcus aureus[2]. 
-Le 6-méthylcryptoacétalide, les aegyptinones A et B, le 6-méthyl-épicryptoacétalide et la 6-méthylcryptotanshinone ont été isolés de cette espèce[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salvia aegyptiaca a été étudiée en raison de ses utilisations dans la médecine populaire de l'Ancien Monde pour traiter la diarrhée, la gonorrhée et les hémorroïdes, et elle a été utilisée comme émollient, antispasmodique, cicatrisant, antiseptique et stomachique . Ses extraits non polaires ont été testés comme antimicrobiens et ont présenté une activité inhibitrice contre Bacillus subtilis, Pseudomonas aeruginosa, Candida albicans et Staphylococcus aureus. 
+Le 6-méthylcryptoacétalide, les aegyptinones A et B, le 6-méthyl-épicryptoacétalide et la 6-méthylcryptotanshinone ont été isolés de cette espèce.
 </t>
         </is>
       </c>
